--- a/SensitivityAnalisys/CF_G_2022_12.xlsx
+++ b/SensitivityAnalisys/CF_G_2022_12.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4F44D3-AA13-43B1-B01C-911A079815EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BA1193C-5D56-4C60-8903-191CAC6B97C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="54360" yWindow="15" windowWidth="26070" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="84">
   <si>
     <t>ReportingNode</t>
   </si>
@@ -318,6 +318,9 @@
   </si>
   <si>
     <t>N</t>
+  </si>
+  <si>
+    <t>CU</t>
   </si>
 </sst>
 </file>
@@ -362,9 +365,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1111,8 +1116,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A2794D1-B51A-4214-9F0F-3759214B985D}" name="Table_Cashflow" displayName="Table_Cashflow" ref="A1:BN4" totalsRowShown="0">
-  <autoFilter ref="A1:BN4" xr:uid="{8A2794D1-B51A-4214-9F0F-3759214B985D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8A2794D1-B51A-4214-9F0F-3759214B985D}" name="Table_Cashflow" displayName="Table_Cashflow" ref="A1:BN6" totalsRowShown="0">
+  <autoFilter ref="A1:BN6" xr:uid="{8A2794D1-B51A-4214-9F0F-3759214B985D}"/>
   <tableColumns count="66">
     <tableColumn id="1" xr3:uid="{AB6C4FDA-20C7-4248-B970-0ADAFC942715}" name="DataNode" dataDxfId="64"/>
     <tableColumn id="2" xr3:uid="{C183BDB8-B61A-4290-ABA4-897A59668871}" name="AmountType" dataDxfId="63"/>
@@ -1535,10 +1540,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59E8FC3-4B20-424B-A44D-77DCF1F6F0A1}">
-  <dimension ref="A1:BV4"/>
+  <dimension ref="A1:BV6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1750,12 +1755,12 @@
         <v>78</v>
       </c>
     </row>
-    <row r="2" spans="1:74" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>28</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="C2" t="s">
         <v>81</v>
@@ -1767,190 +1772,198 @@
         <v>82</v>
       </c>
       <c r="F2" s="1">
-        <v>-62.400000000000006</v>
+        <v>1050.01125</v>
       </c>
       <c r="G2" s="1">
-        <v>-62.573111721416794</v>
+        <v>0</v>
       </c>
       <c r="H2" s="1">
-        <v>-62.744207957977196</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>-62.967805043069696</v>
+        <v>919.62460633249293</v>
       </c>
       <c r="J2" s="1">
-        <v>-63.249609137640363</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>-63.592360432027142</v>
+        <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>-63.998019127576292</v>
+        <v>817.68656655512063</v>
       </c>
       <c r="M2" s="1">
-        <v>-64.468326832039168</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
-        <v>-65.005016069293589</v>
+        <v>0</v>
       </c>
       <c r="O2" s="1">
-        <v>-65.60990798276535</v>
+        <v>729.95759845028601</v>
       </c>
       <c r="P2" s="1">
-        <v>-66.284966318698437</v>
+        <v>0</v>
       </c>
       <c r="Q2" s="1">
-        <v>-67.116071824382175</v>
+        <v>0</v>
       </c>
       <c r="R2" s="1">
-        <v>-68.088972842995545</v>
+        <v>652.90533385823562</v>
       </c>
       <c r="S2" s="1">
-        <v>-69.209864527190149</v>
+        <v>0</v>
       </c>
       <c r="T2" s="1">
-        <v>-70.485729590990118</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>-71.92447079938556</v>
+        <v>584.66449259889407</v>
       </c>
       <c r="V2" s="1">
-        <v>-73.535024616894404</v>
+        <v>0</v>
       </c>
       <c r="W2" s="1">
-        <v>-75.327471768758045</v>
+        <v>0</v>
       </c>
       <c r="X2" s="1">
-        <v>-77.490052125820085</v>
+        <v>523.96334815427065</v>
       </c>
       <c r="Y2" s="1">
-        <v>-80.021038522117266</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>-82.951717075544892</v>
+        <v>0</v>
       </c>
       <c r="AA2" s="1">
-        <v>-86.318891036460485</v>
+        <v>469.87662547672426</v>
       </c>
       <c r="AB2" s="1">
-        <v>-90.165682780609657</v>
+        <v>0</v>
       </c>
       <c r="AC2" s="1">
-        <v>-94.542461986817372</v>
+        <v>0</v>
       </c>
       <c r="AD2" s="1">
-        <v>-99.507936187495403</v>
+        <v>421.66198789258158</v>
       </c>
       <c r="AE2" s="1">
-        <v>-105.13044034380748</v>
+        <v>0</v>
       </c>
       <c r="AF2" s="1">
-        <v>-111.60718793157646</v>
+        <v>0</v>
       </c>
       <c r="AG2" s="1">
-        <v>-119.03852890783291</v>
+        <v>378.56110811040418</v>
       </c>
       <c r="AH2" s="1">
-        <v>-127.55756367665276</v>
+        <v>0</v>
       </c>
       <c r="AI2" s="1">
-        <v>-137.32184450480466</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>-148.51803474861973</v>
+        <v>339.98626179201261</v>
       </c>
       <c r="AK2" s="1">
-        <v>-161.36757961245462</v>
+        <v>0</v>
       </c>
       <c r="AL2" s="1">
-        <v>-176.13362128347933</v>
+        <v>0</v>
       </c>
       <c r="AM2" s="1">
-        <v>-193.12944888784196</v>
+        <v>305.50241421356401</v>
       </c>
       <c r="AN2" s="1">
-        <v>-211.24585051107354</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>-230.4065870862506</v>
+        <v>0</v>
       </c>
       <c r="AP2" s="1">
-        <v>-250.35940938713679</v>
+        <v>274.6193229638784</v>
       </c>
       <c r="AQ2" s="1">
-        <v>-271.03667595258645</v>
+        <v>0</v>
       </c>
       <c r="AR2" s="1">
-        <v>-292.33520596425137</v>
+        <v>0</v>
       </c>
       <c r="AS2" s="1">
-        <v>-313.81139412494559</v>
+        <v>244.24984708572484</v>
       </c>
       <c r="AT2" s="1">
-        <v>-335.29119824983485</v>
+        <v>0</v>
       </c>
       <c r="AU2" s="1">
-        <v>-356.5587629078824</v>
+        <v>0</v>
       </c>
       <c r="AV2" s="1">
-        <v>-376.98585400563792</v>
+        <v>212.57495888357275</v>
       </c>
       <c r="AW2" s="1">
-        <v>-396.30844958709582</v>
+        <v>0</v>
       </c>
       <c r="AX2" s="1">
-        <v>-413.32760330752188</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>-427.25659795511325</v>
+        <v>179.27939930883349</v>
       </c>
       <c r="AZ2" s="1">
-        <v>-436.73021271730363</v>
+        <v>0</v>
       </c>
       <c r="BA2" s="1">
-        <v>-440.85660676388068</v>
+        <v>0</v>
       </c>
       <c r="BB2" s="1">
-        <v>-440.82997931846097</v>
+        <v>147.79303001694694</v>
       </c>
       <c r="BC2" s="1">
-        <v>-438.74050211348998</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>-430.06181630174956</v>
+        <v>0</v>
       </c>
       <c r="BE2" s="1">
-        <v>-403.95406817909753</v>
+        <v>105.33322102321942</v>
       </c>
       <c r="BF2" s="1">
-        <v>-367.73088041921051</v>
+        <v>0</v>
       </c>
       <c r="BG2" s="1">
-        <v>-323.68571140370199</v>
+        <v>0</v>
       </c>
       <c r="BH2" s="1">
-        <v>-273.57128742844264</v>
+        <v>70.843961357390739</v>
       </c>
       <c r="BI2" s="1">
-        <v>-220.25128050271982</v>
+        <v>0</v>
       </c>
       <c r="BJ2" s="1">
-        <v>-166.33124150811673</v>
+        <v>0</v>
       </c>
       <c r="BK2" s="1">
-        <v>-115.62636533208395</v>
+        <v>42.983466088385022</v>
       </c>
       <c r="BL2" s="1">
-        <v>-72.269898774664426</v>
+        <v>0</v>
       </c>
       <c r="BM2" s="1">
-        <v>-37.740842268239504</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>-11.410122760645162</v>
-      </c>
-    </row>
-    <row r="3" spans="1:74" x14ac:dyDescent="0.25">
+        <v>22.550646783891189</v>
+      </c>
+      <c r="BO2" s="1"/>
+      <c r="BP2" s="1"/>
+      <c r="BQ2" s="1"/>
+      <c r="BR2" s="1"/>
+      <c r="BS2" s="1"/>
+      <c r="BT2" s="1"/>
+      <c r="BU2" s="1"/>
+      <c r="BV2" s="1"/>
+    </row>
+    <row r="3" spans="1:74" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1961,209 +1974,201 @@
         <v>81</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="F3" s="1">
-        <v>-76</v>
+        <v>-62.400000000000006</v>
       </c>
       <c r="G3" s="1">
-        <v>-76.210841199161464</v>
+        <v>-62.573111721416794</v>
       </c>
       <c r="H3" s="1">
-        <v>-76.419227641126056</v>
+        <v>-62.744207957977196</v>
       </c>
       <c r="I3" s="1">
-        <v>-76.691557424251542</v>
+        <v>-62.967805043069696</v>
       </c>
       <c r="J3" s="1">
-        <v>-77.034780359946595</v>
+        <v>-63.249609137640363</v>
       </c>
       <c r="K3" s="1">
-        <v>-77.452233859520234</v>
+        <v>-63.592360432027142</v>
       </c>
       <c r="L3" s="1">
-        <v>-77.946305347689076</v>
+        <v>-63.998019127576292</v>
       </c>
       <c r="M3" s="1">
-        <v>-78.519116013381037</v>
+        <v>-64.468326832039168</v>
       </c>
       <c r="N3" s="1">
-        <v>-79.172775981831933</v>
+        <v>-65.005016069293589</v>
       </c>
       <c r="O3" s="1">
-        <v>-79.909503312342409</v>
+        <v>-65.60990798276535</v>
       </c>
       <c r="P3" s="1">
-        <v>-80.731689747132705</v>
+        <v>-66.284966318698437</v>
       </c>
       <c r="Q3" s="1">
-        <v>-81.743933632260322</v>
+        <v>-67.116071824382175</v>
       </c>
       <c r="R3" s="1">
-        <v>-82.92887718057149</v>
+        <v>-68.088972842995545</v>
       </c>
       <c r="S3" s="1">
-        <v>-84.294065770295688</v>
+        <v>-69.209864527190149</v>
       </c>
       <c r="T3" s="1">
-        <v>-85.848003989026424</v>
+        <v>-70.485729590990118</v>
       </c>
       <c r="U3" s="1">
-        <v>-87.600316999251646</v>
+        <v>-71.92447079938556</v>
       </c>
       <c r="V3" s="1">
-        <v>-89.56188895647395</v>
+        <v>-73.535024616894404</v>
       </c>
       <c r="W3" s="1">
-        <v>-91.744997667077087</v>
+        <v>-75.327471768758045</v>
       </c>
       <c r="X3" s="1">
-        <v>-94.378909640421881</v>
+        <v>-77.490052125820085</v>
       </c>
       <c r="Y3" s="1">
-        <v>-97.461521276937688</v>
+        <v>-80.021038522117266</v>
       </c>
       <c r="Z3" s="1">
-        <v>-101.03093746380466</v>
+        <v>-82.951717075544892</v>
       </c>
       <c r="AA3" s="1">
-        <v>-105.13198267261211</v>
+        <v>-86.318891036460485</v>
       </c>
       <c r="AB3" s="1">
-        <v>-109.81717774561433</v>
+        <v>-90.165682780609657</v>
       </c>
       <c r="AC3" s="1">
-        <v>-115.14787036855961</v>
+        <v>-94.542461986817372</v>
       </c>
       <c r="AD3" s="1">
-        <v>-121.19556330528285</v>
+        <v>-99.507936187495403</v>
       </c>
       <c r="AE3" s="1">
-        <v>-128.04348503412447</v>
+        <v>-105.13044034380748</v>
       </c>
       <c r="AF3" s="1">
-        <v>-135.93183145512518</v>
+        <v>-111.60718793157646</v>
       </c>
       <c r="AG3" s="1">
-        <v>-144.98282366979649</v>
+        <v>-119.03852890783291</v>
       </c>
       <c r="AH3" s="1">
-        <v>-155.35857114464116</v>
+        <v>-127.55756367665276</v>
       </c>
       <c r="AI3" s="1">
-        <v>-167.25096446098001</v>
+        <v>-137.32184450480466</v>
       </c>
       <c r="AJ3" s="1">
-        <v>-180.88735001434452</v>
+        <v>-148.51803474861973</v>
       </c>
       <c r="AK3" s="1">
-        <v>-196.53743670747676</v>
+        <v>-161.36757961245462</v>
       </c>
       <c r="AL3" s="1">
-        <v>-214.52171822987864</v>
+        <v>-176.13362128347933</v>
       </c>
       <c r="AM3" s="1">
-        <v>-235.22176467108955</v>
+        <v>-193.12944888784196</v>
       </c>
       <c r="AN3" s="1">
-        <v>-257.28661280194854</v>
+        <v>-211.24585051107354</v>
       </c>
       <c r="AO3" s="1">
-        <v>-280.62340734863852</v>
+        <v>-230.4065870862506</v>
       </c>
       <c r="AP3" s="1">
-        <v>-304.92492168946148</v>
+        <v>-250.35940938713679</v>
       </c>
       <c r="AQ3" s="1">
-        <v>-330.10877199353479</v>
+        <v>-271.03667595258645</v>
       </c>
       <c r="AR3" s="1">
-        <v>-356.04928931543435</v>
+        <v>-292.33520596425137</v>
       </c>
       <c r="AS3" s="1">
-        <v>-382.20618515217734</v>
+        <v>-313.81139412494559</v>
       </c>
       <c r="AT3" s="1">
-        <v>-408.36748504787579</v>
+        <v>-335.29119824983485</v>
       </c>
       <c r="AU3" s="1">
-        <v>-434.27028815703625</v>
+        <v>-356.5587629078824</v>
       </c>
       <c r="AV3" s="1">
-        <v>-459.14943757096921</v>
+        <v>-376.98585400563792</v>
       </c>
       <c r="AW3" s="1">
-        <v>-482.68336808684745</v>
+        <v>-396.30844958709582</v>
       </c>
       <c r="AX3" s="1">
-        <v>-503.41182454121252</v>
+        <v>-413.32760330752188</v>
       </c>
       <c r="AY3" s="1">
-        <v>-520.37662571456099</v>
+        <v>-427.25659795511325</v>
       </c>
       <c r="AZ3" s="1">
-        <v>-531.91500266851074</v>
+        <v>-436.73021271730363</v>
       </c>
       <c r="BA3" s="1">
-        <v>-536.94073900729052</v>
+        <v>-440.85660676388068</v>
       </c>
       <c r="BB3" s="1">
-        <v>-536.90830814427932</v>
+        <v>-440.82997931846097</v>
       </c>
       <c r="BC3" s="1">
-        <v>-534.36343206130186</v>
+        <v>-438.74050211348998</v>
       </c>
       <c r="BD3" s="1">
-        <v>-523.79323780341292</v>
+        <v>-430.06181630174956</v>
       </c>
       <c r="BE3" s="1">
-        <v>-491.99533944890078</v>
+        <v>-403.95406817909753</v>
       </c>
       <c r="BF3" s="1">
-        <v>-447.87735435673068</v>
+        <v>-367.73088041921051</v>
       </c>
       <c r="BG3" s="1">
-        <v>-394.23259722245751</v>
+        <v>-323.68571140370199</v>
       </c>
       <c r="BH3" s="1">
-        <v>-333.19579879105191</v>
+        <v>-273.57128742844264</v>
       </c>
       <c r="BI3" s="1">
-        <v>-268.25476471485104</v>
+        <v>-220.25128050271982</v>
       </c>
       <c r="BJ3" s="1">
-        <v>-202.58292234962934</v>
+        <v>-166.33124150811673</v>
       </c>
       <c r="BK3" s="1">
-        <v>-140.82698341728172</v>
+        <v>-115.62636533208395</v>
       </c>
       <c r="BL3" s="1">
-        <v>-88.021030558886153</v>
+        <v>-72.269898774664426</v>
       </c>
       <c r="BM3" s="1">
-        <v>-45.966410454907084</v>
+        <v>-37.740842268239504</v>
       </c>
       <c r="BN3" s="1">
-        <v>-13.896944387965261</v>
-      </c>
-      <c r="BO3" s="1"/>
-      <c r="BP3" s="1"/>
-      <c r="BQ3" s="1"/>
-      <c r="BR3" s="1"/>
-      <c r="BS3" s="1"/>
-      <c r="BT3" s="1"/>
-      <c r="BU3" s="1"/>
-      <c r="BV3" s="1"/>
+        <v>-11.410122760645162</v>
+      </c>
     </row>
     <row r="4" spans="1:74" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="C4" t="s">
         <v>81</v>
@@ -2175,187 +2180,187 @@
         <v>38</v>
       </c>
       <c r="F4" s="1">
-        <v>2100.0225</v>
+        <v>-76</v>
       </c>
       <c r="G4" s="1">
-        <v>0</v>
+        <v>-76.210841199161464</v>
       </c>
       <c r="H4" s="1">
-        <v>0</v>
+        <v>-76.419227641126056</v>
       </c>
       <c r="I4" s="1">
-        <v>1839.2492126649859</v>
+        <v>-76.691557424251542</v>
       </c>
       <c r="J4" s="1">
-        <v>0</v>
+        <v>-77.034780359946595</v>
       </c>
       <c r="K4" s="1">
-        <v>0</v>
+        <v>-77.452233859520234</v>
       </c>
       <c r="L4" s="1">
-        <v>1635.3731331102413</v>
+        <v>-77.946305347689076</v>
       </c>
       <c r="M4" s="1">
-        <v>0</v>
+        <v>-78.519116013381037</v>
       </c>
       <c r="N4" s="1">
-        <v>0</v>
+        <v>-79.172775981831933</v>
       </c>
       <c r="O4" s="1">
-        <v>1459.915196900572</v>
+        <v>-79.909503312342409</v>
       </c>
       <c r="P4" s="1">
-        <v>0</v>
+        <v>-80.731689747132705</v>
       </c>
       <c r="Q4" s="1">
-        <v>0</v>
+        <v>-81.743933632260322</v>
       </c>
       <c r="R4" s="1">
-        <v>1305.8106677164712</v>
+        <v>-82.92887718057149</v>
       </c>
       <c r="S4" s="1">
-        <v>0</v>
+        <v>-84.294065770295688</v>
       </c>
       <c r="T4" s="1">
-        <v>0</v>
+        <v>-85.848003989026424</v>
       </c>
       <c r="U4" s="1">
-        <v>1169.3289851977881</v>
+        <v>-87.600316999251646</v>
       </c>
       <c r="V4" s="1">
-        <v>0</v>
+        <v>-89.56188895647395</v>
       </c>
       <c r="W4" s="1">
-        <v>0</v>
+        <v>-91.744997667077087</v>
       </c>
       <c r="X4" s="1">
-        <v>1047.9266963085413</v>
+        <v>-94.378909640421881</v>
       </c>
       <c r="Y4" s="1">
-        <v>0</v>
+        <v>-97.461521276937688</v>
       </c>
       <c r="Z4" s="1">
-        <v>0</v>
+        <v>-101.03093746380466</v>
       </c>
       <c r="AA4" s="1">
-        <v>939.75325095344851</v>
+        <v>-105.13198267261211</v>
       </c>
       <c r="AB4" s="1">
-        <v>0</v>
+        <v>-109.81717774561433</v>
       </c>
       <c r="AC4" s="1">
-        <v>0</v>
+        <v>-115.14787036855961</v>
       </c>
       <c r="AD4" s="1">
-        <v>843.32397578516316</v>
+        <v>-121.19556330528285</v>
       </c>
       <c r="AE4" s="1">
-        <v>0</v>
+        <v>-128.04348503412447</v>
       </c>
       <c r="AF4" s="1">
-        <v>0</v>
+        <v>-135.93183145512518</v>
       </c>
       <c r="AG4" s="1">
-        <v>757.12221622080835</v>
+        <v>-144.98282366979649</v>
       </c>
       <c r="AH4" s="1">
-        <v>0</v>
+        <v>-155.35857114464116</v>
       </c>
       <c r="AI4" s="1">
-        <v>0</v>
+        <v>-167.25096446098001</v>
       </c>
       <c r="AJ4" s="1">
-        <v>679.97252358402523</v>
+        <v>-180.88735001434452</v>
       </c>
       <c r="AK4" s="1">
-        <v>0</v>
+        <v>-196.53743670747676</v>
       </c>
       <c r="AL4" s="1">
-        <v>0</v>
+        <v>-214.52171822987864</v>
       </c>
       <c r="AM4" s="1">
-        <v>611.00482842712802</v>
+        <v>-235.22176467108955</v>
       </c>
       <c r="AN4" s="1">
-        <v>0</v>
+        <v>-257.28661280194854</v>
       </c>
       <c r="AO4" s="1">
-        <v>0</v>
+        <v>-280.62340734863852</v>
       </c>
       <c r="AP4" s="1">
-        <v>549.23864592775681</v>
+        <v>-304.92492168946148</v>
       </c>
       <c r="AQ4" s="1">
-        <v>0</v>
+        <v>-330.10877199353479</v>
       </c>
       <c r="AR4" s="1">
-        <v>0</v>
+        <v>-356.04928931543435</v>
       </c>
       <c r="AS4" s="1">
-        <v>488.49969417144968</v>
+        <v>-382.20618515217734</v>
       </c>
       <c r="AT4" s="1">
-        <v>0</v>
+        <v>-408.36748504787579</v>
       </c>
       <c r="AU4" s="1">
-        <v>0</v>
+        <v>-434.27028815703625</v>
       </c>
       <c r="AV4" s="1">
-        <v>425.1499177671455</v>
+        <v>-459.14943757096921</v>
       </c>
       <c r="AW4" s="1">
-        <v>0</v>
+        <v>-482.68336808684745</v>
       </c>
       <c r="AX4" s="1">
-        <v>0</v>
+        <v>-503.41182454121252</v>
       </c>
       <c r="AY4" s="1">
-        <v>358.55879861766698</v>
+        <v>-520.37662571456099</v>
       </c>
       <c r="AZ4" s="1">
-        <v>0</v>
+        <v>-531.91500266851074</v>
       </c>
       <c r="BA4" s="1">
-        <v>0</v>
+        <v>-536.94073900729052</v>
       </c>
       <c r="BB4" s="1">
-        <v>295.58606003389389</v>
+        <v>-536.90830814427932</v>
       </c>
       <c r="BC4" s="1">
-        <v>0</v>
+        <v>-534.36343206130186</v>
       </c>
       <c r="BD4" s="1">
-        <v>0</v>
+        <v>-523.79323780341292</v>
       </c>
       <c r="BE4" s="1">
-        <v>210.66644204643885</v>
+        <v>-491.99533944890078</v>
       </c>
       <c r="BF4" s="1">
-        <v>0</v>
+        <v>-447.87735435673068</v>
       </c>
       <c r="BG4" s="1">
-        <v>0</v>
+        <v>-394.23259722245751</v>
       </c>
       <c r="BH4" s="1">
-        <v>141.68792271478148</v>
+        <v>-333.19579879105191</v>
       </c>
       <c r="BI4" s="1">
-        <v>0</v>
+        <v>-268.25476471485104</v>
       </c>
       <c r="BJ4" s="1">
-        <v>0</v>
+        <v>-202.58292234962934</v>
       </c>
       <c r="BK4" s="1">
-        <v>85.966932176770044</v>
+        <v>-140.82698341728172</v>
       </c>
       <c r="BL4" s="1">
-        <v>0</v>
+        <v>-88.021030558886153</v>
       </c>
       <c r="BM4" s="1">
-        <v>0</v>
+        <v>-45.966410454907084</v>
       </c>
       <c r="BN4" s="1">
-        <v>45.101293567782378</v>
+        <v>-13.896944387965261</v>
       </c>
       <c r="BO4" s="1"/>
       <c r="BP4" s="1"/>
@@ -2366,19 +2371,433 @@
       <c r="BU4" s="1"/>
       <c r="BV4" s="1"/>
     </row>
+    <row r="5" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1155.012375</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1011.5870669657423</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+      <c r="L5" s="1">
+        <v>899.45522321063277</v>
+      </c>
+      <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0</v>
+      </c>
+      <c r="O5" s="1">
+        <v>802.95335829531473</v>
+      </c>
+      <c r="P5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>0</v>
+      </c>
+      <c r="R5" s="1">
+        <v>718.19586724405929</v>
+      </c>
+      <c r="S5" s="1">
+        <v>0</v>
+      </c>
+      <c r="T5" s="1">
+        <v>0</v>
+      </c>
+      <c r="U5" s="1">
+        <v>643.13094185878356</v>
+      </c>
+      <c r="V5" s="1">
+        <v>0</v>
+      </c>
+      <c r="W5" s="1">
+        <v>0</v>
+      </c>
+      <c r="X5" s="1">
+        <v>576.35968296969781</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>516.86428802439673</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>463.82818668183978</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>416.4172189214446</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>373.98488797121388</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>336.05265563492043</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="1">
+        <v>302.08125526026629</v>
+      </c>
+      <c r="AQ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="1">
+        <v>268.67483179429735</v>
+      </c>
+      <c r="AT5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="1">
+        <v>233.83245477193003</v>
+      </c>
+      <c r="AW5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AX5" s="1">
+        <v>0</v>
+      </c>
+      <c r="AY5" s="1">
+        <v>197.20733923971684</v>
+      </c>
+      <c r="AZ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BA5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BB5" s="1">
+        <v>162.57233301864164</v>
+      </c>
+      <c r="BC5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BD5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BE5" s="1">
+        <v>115.86654312554137</v>
+      </c>
+      <c r="BF5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BG5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BH5" s="1">
+        <v>77.928357493129823</v>
+      </c>
+      <c r="BI5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BK5" s="1">
+        <v>47.281812697223529</v>
+      </c>
+      <c r="BL5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BM5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BN5" s="1">
+        <v>24.805711462280311</v>
+      </c>
+      <c r="BO5" s="1"/>
+      <c r="BP5" s="1"/>
+      <c r="BQ5" s="1"/>
+      <c r="BR5" s="1"/>
+      <c r="BS5" s="1"/>
+      <c r="BT5" s="1"/>
+      <c r="BU5" s="1"/>
+      <c r="BV5" s="1"/>
+    </row>
+    <row r="6" spans="1:74" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F6" s="3">
+        <v>-10</v>
+      </c>
+      <c r="G6" s="3">
+        <v>-10</v>
+      </c>
+      <c r="H6" s="3">
+        <v>-10</v>
+      </c>
+      <c r="I6" s="3">
+        <v>-10</v>
+      </c>
+      <c r="J6" s="3">
+        <v>-10</v>
+      </c>
+      <c r="K6" s="3">
+        <v>-10</v>
+      </c>
+      <c r="L6" s="3">
+        <v>-10</v>
+      </c>
+      <c r="M6" s="3">
+        <v>-10</v>
+      </c>
+      <c r="N6" s="3">
+        <v>-10</v>
+      </c>
+      <c r="O6" s="3">
+        <v>-10</v>
+      </c>
+      <c r="P6" s="3">
+        <v>-10</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>-10</v>
+      </c>
+      <c r="R6" s="3">
+        <v>-10</v>
+      </c>
+      <c r="S6" s="3">
+        <v>-5</v>
+      </c>
+      <c r="T6" s="3">
+        <v>-5</v>
+      </c>
+      <c r="U6" s="3">
+        <v>-5</v>
+      </c>
+      <c r="V6" s="3">
+        <v>-5</v>
+      </c>
+      <c r="W6" s="3">
+        <v>-5</v>
+      </c>
+      <c r="X6" s="3">
+        <v>-5</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>-5</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>-5</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>-5</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>-5</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>-3</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>-3</v>
+      </c>
+      <c r="AE6" s="3">
+        <v>-3</v>
+      </c>
+      <c r="AF6" s="3">
+        <v>-3</v>
+      </c>
+      <c r="AG6" s="3">
+        <v>-3</v>
+      </c>
+      <c r="AH6" s="3">
+        <v>-3</v>
+      </c>
+      <c r="AI6" s="3">
+        <v>-3</v>
+      </c>
+      <c r="AJ6" s="3">
+        <v>-3</v>
+      </c>
+      <c r="AK6" s="3">
+        <v>-3</v>
+      </c>
+      <c r="AL6" s="3">
+        <v>-3</v>
+      </c>
+      <c r="AM6" s="3">
+        <v>-3</v>
+      </c>
+      <c r="AN6" s="3">
+        <v>-3</v>
+      </c>
+      <c r="AO6" s="3">
+        <v>-3</v>
+      </c>
+      <c r="AP6" s="3">
+        <v>-3</v>
+      </c>
+      <c r="AQ6" s="3">
+        <v>-3</v>
+      </c>
+      <c r="AR6" s="3">
+        <v>-3</v>
+      </c>
+      <c r="AS6" s="3">
+        <v>-3</v>
+      </c>
+      <c r="AT6" s="3">
+        <v>-3</v>
+      </c>
+      <c r="AU6" s="3">
+        <v>-3</v>
+      </c>
+      <c r="AV6" s="3">
+        <v>-3</v>
+      </c>
+      <c r="AW6" s="3">
+        <v>-3</v>
+      </c>
+      <c r="AX6" s="3">
+        <v>-3</v>
+      </c>
+      <c r="AY6" s="3">
+        <v>-3</v>
+      </c>
+      <c r="AZ6" s="3">
+        <v>-3</v>
+      </c>
+      <c r="BA6" s="3">
+        <v>-3</v>
+      </c>
+      <c r="BB6" s="3">
+        <v>-3</v>
+      </c>
+      <c r="BC6" s="3">
+        <v>-3</v>
+      </c>
+      <c r="BD6" s="3">
+        <v>-3</v>
+      </c>
+      <c r="BE6" s="3">
+        <v>-3</v>
+      </c>
+      <c r="BF6" s="3">
+        <v>-3</v>
+      </c>
+      <c r="BG6" s="3">
+        <v>-3</v>
+      </c>
+      <c r="BH6" s="3">
+        <v>-3</v>
+      </c>
+      <c r="BI6" s="3">
+        <v>-3</v>
+      </c>
+      <c r="BJ6" s="3">
+        <v>-3</v>
+      </c>
+      <c r="BK6" s="3">
+        <v>-3</v>
+      </c>
+      <c r="BL6" s="3">
+        <v>-3</v>
+      </c>
+      <c r="BM6" s="3">
+        <v>-3</v>
+      </c>
+      <c r="BN6" s="3">
+        <v>-3</v>
+      </c>
+      <c r="BO6" s="1"/>
+      <c r="BP6" s="1"/>
+      <c r="BQ6" s="1"/>
+      <c r="BR6" s="1"/>
+      <c r="BS6" s="1"/>
+      <c r="BT6" s="1"/>
+      <c r="BU6" s="1"/>
+      <c r="BV6" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" sqref="E2:E4" xr:uid="{F46D9BC3-5F2B-49AE-B0E5-219F6AFD5986}">
+    <dataValidation type="list" allowBlank="1" sqref="E2:E6" xr:uid="{F46D9BC3-5F2B-49AE-B0E5-219F6AFD5986}">
       <formula1>Novelty_SystemName</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="D2:D4" xr:uid="{94280AA9-3B6D-49DB-AD0B-515686FB2236}">
+    <dataValidation type="list" allowBlank="1" sqref="D2:D6" xr:uid="{94280AA9-3B6D-49DB-AD0B-515686FB2236}">
       <formula1>VariableType_SystemName</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="B2:C4" xr:uid="{E1914404-EC69-4677-A011-EBECC697A0DD}">
+    <dataValidation type="list" allowBlank="1" sqref="B2:C6" xr:uid="{E1914404-EC69-4677-A011-EBECC697A0DD}">
       <formula1>AmountType_SystemName</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" sqref="A2:A4" xr:uid="{F8422977-C414-44E6-9859-F916E27809B3}">
+    <dataValidation type="list" allowBlank="1" sqref="A2:A6" xr:uid="{F8422977-C414-44E6-9859-F916E27809B3}">
       <formula1>GroupOfContract_SystemName</formula1>
     </dataValidation>
   </dataValidations>

--- a/SensitivityAnalisys/CF_G_2022_12.xlsx
+++ b/SensitivityAnalisys/CF_G_2022_12.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BA1193C-5D56-4C60-8903-191CAC6B97C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0709F981-A887-4ABF-8E74-35049B9141D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="54360" yWindow="15" windowWidth="26070" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="54990" yWindow="10395" windowWidth="25305" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -365,11 +365,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1543,7 +1541,7 @@
   <dimension ref="A1:BV6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1772,7 +1770,7 @@
         <v>82</v>
       </c>
       <c r="F2" s="1">
-        <v>1050.01125</v>
+        <v>1837.5196875000001</v>
       </c>
       <c r="G2" s="1">
         <v>0</v>
@@ -1781,7 +1779,7 @@
         <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>919.62460633249293</v>
+        <v>1609.3430610818627</v>
       </c>
       <c r="J2" s="1">
         <v>0</v>
@@ -1790,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="1">
-        <v>817.68656655512063</v>
+        <v>1430.9514914714609</v>
       </c>
       <c r="M2" s="1">
         <v>0</v>
@@ -1799,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="1">
-        <v>729.95759845028601</v>
+        <v>1277.4257972880005</v>
       </c>
       <c r="P2" s="1">
         <v>0</v>
@@ -1808,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="R2" s="1">
-        <v>652.90533385823562</v>
+        <v>1142.5843342519122</v>
       </c>
       <c r="S2" s="1">
         <v>0</v>
@@ -1817,7 +1815,7 @@
         <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>584.66449259889407</v>
+        <v>1023.1628620480647</v>
       </c>
       <c r="V2" s="1">
         <v>0</v>
@@ -1826,7 +1824,7 @@
         <v>0</v>
       </c>
       <c r="X2" s="1">
-        <v>523.96334815427065</v>
+        <v>916.93585926997355</v>
       </c>
       <c r="Y2" s="1">
         <v>0</v>
@@ -1835,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="AA2" s="1">
-        <v>469.87662547672426</v>
+        <v>822.28409458426745</v>
       </c>
       <c r="AB2" s="1">
         <v>0</v>
@@ -1844,7 +1842,7 @@
         <v>0</v>
       </c>
       <c r="AD2" s="1">
-        <v>421.66198789258158</v>
+        <v>737.90847881201773</v>
       </c>
       <c r="AE2" s="1">
         <v>0</v>
@@ -1853,7 +1851,7 @@
         <v>0</v>
       </c>
       <c r="AG2" s="1">
-        <v>378.56110811040418</v>
+        <v>662.48193919320727</v>
       </c>
       <c r="AH2" s="1">
         <v>0</v>
@@ -1862,7 +1860,7 @@
         <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>339.98626179201261</v>
+        <v>594.97595813602197</v>
       </c>
       <c r="AK2" s="1">
         <v>0</v>
@@ -1871,7 +1869,7 @@
         <v>0</v>
       </c>
       <c r="AM2" s="1">
-        <v>305.50241421356401</v>
+        <v>534.62922487373692</v>
       </c>
       <c r="AN2" s="1">
         <v>0</v>
@@ -1880,7 +1878,7 @@
         <v>0</v>
       </c>
       <c r="AP2" s="1">
-        <v>274.6193229638784</v>
+        <v>480.58381518678715</v>
       </c>
       <c r="AQ2" s="1">
         <v>0</v>
@@ -1889,7 +1887,7 @@
         <v>0</v>
       </c>
       <c r="AS2" s="1">
-        <v>244.24984708572484</v>
+        <v>427.43723240001839</v>
       </c>
       <c r="AT2" s="1">
         <v>0</v>
@@ -1898,7 +1896,7 @@
         <v>0</v>
       </c>
       <c r="AV2" s="1">
-        <v>212.57495888357275</v>
+        <v>372.00617804625233</v>
       </c>
       <c r="AW2" s="1">
         <v>0</v>
@@ -1907,7 +1905,7 @@
         <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>179.27939930883349</v>
+        <v>313.73894879045861</v>
       </c>
       <c r="AZ2" s="1">
         <v>0</v>
@@ -1916,7 +1914,7 @@
         <v>0</v>
       </c>
       <c r="BB2" s="1">
-        <v>147.79303001694694</v>
+        <v>258.63780252965716</v>
       </c>
       <c r="BC2" s="1">
         <v>0</v>
@@ -1925,7 +1923,7 @@
         <v>0</v>
       </c>
       <c r="BE2" s="1">
-        <v>105.33322102321942</v>
+        <v>184.333136790634</v>
       </c>
       <c r="BF2" s="1">
         <v>0</v>
@@ -1934,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="BH2" s="1">
-        <v>70.843961357390739</v>
+        <v>123.97693237543379</v>
       </c>
       <c r="BI2" s="1">
         <v>0</v>
@@ -1943,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="BK2" s="1">
-        <v>42.983466088385022</v>
+        <v>75.221065654673794</v>
       </c>
       <c r="BL2" s="1">
         <v>0</v>
@@ -1952,7 +1950,7 @@
         <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>22.550646783891189</v>
+        <v>39.463631871809575</v>
       </c>
       <c r="BO2" s="1"/>
       <c r="BP2" s="1"/>
@@ -2388,7 +2386,7 @@
         <v>38</v>
       </c>
       <c r="F5" s="1">
-        <v>1155.012375</v>
+        <v>2296.8996093750002</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -2397,7 +2395,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>1011.5870669657423</v>
+        <v>2011.6788263523285</v>
       </c>
       <c r="J5" s="1">
         <v>0</v>
@@ -2406,7 +2404,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="1">
-        <v>899.45522321063277</v>
+        <v>1788.6893643393262</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2415,7 +2413,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>802.95335829531473</v>
+        <v>1596.7822466100006</v>
       </c>
       <c r="P5" s="1">
         <v>0</v>
@@ -2424,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="R5" s="1">
-        <v>718.19586724405929</v>
+        <v>1428.2304178148902</v>
       </c>
       <c r="S5" s="1">
         <v>0</v>
@@ -2433,7 +2431,7 @@
         <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>643.13094185878356</v>
+        <v>1278.9535775600807</v>
       </c>
       <c r="V5" s="1">
         <v>0</v>
@@ -2442,7 +2440,7 @@
         <v>0</v>
       </c>
       <c r="X5" s="1">
-        <v>576.35968296969781</v>
+        <v>1146.1698240874668</v>
       </c>
       <c r="Y5" s="1">
         <v>0</v>
@@ -2451,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="AA5" s="1">
-        <v>516.86428802439673</v>
+        <v>1027.8551182303343</v>
       </c>
       <c r="AB5" s="1">
         <v>0</v>
@@ -2460,7 +2458,7 @@
         <v>0</v>
       </c>
       <c r="AD5" s="1">
-        <v>463.82818668183978</v>
+        <v>922.38559851502214</v>
       </c>
       <c r="AE5" s="1">
         <v>0</v>
@@ -2469,7 +2467,7 @@
         <v>0</v>
       </c>
       <c r="AG5" s="1">
-        <v>416.4172189214446</v>
+        <v>828.10242399150911</v>
       </c>
       <c r="AH5" s="1">
         <v>0</v>
@@ -2478,7 +2476,7 @@
         <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>373.98488797121388</v>
+        <v>743.71994767002752</v>
       </c>
       <c r="AK5" s="1">
         <v>0</v>
@@ -2487,7 +2485,7 @@
         <v>0</v>
       </c>
       <c r="AM5" s="1">
-        <v>336.05265563492043</v>
+        <v>668.28653109217112</v>
       </c>
       <c r="AN5" s="1">
         <v>0</v>
@@ -2496,7 +2494,7 @@
         <v>0</v>
       </c>
       <c r="AP5" s="1">
-        <v>302.08125526026629</v>
+        <v>600.72976898348395</v>
       </c>
       <c r="AQ5" s="1">
         <v>0</v>
@@ -2505,7 +2503,7 @@
         <v>0</v>
       </c>
       <c r="AS5" s="1">
-        <v>268.67483179429735</v>
+        <v>534.29654050002296</v>
       </c>
       <c r="AT5" s="1">
         <v>0</v>
@@ -2514,7 +2512,7 @@
         <v>0</v>
       </c>
       <c r="AV5" s="1">
-        <v>233.83245477193003</v>
+        <v>465.00772255781544</v>
       </c>
       <c r="AW5" s="1">
         <v>0</v>
@@ -2523,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>197.20733923971684</v>
+        <v>392.17368598807326</v>
       </c>
       <c r="AZ5" s="1">
         <v>0</v>
@@ -2532,7 +2530,7 @@
         <v>0</v>
       </c>
       <c r="BB5" s="1">
-        <v>162.57233301864164</v>
+        <v>323.29725316207146</v>
       </c>
       <c r="BC5" s="1">
         <v>0</v>
@@ -2541,7 +2539,7 @@
         <v>0</v>
       </c>
       <c r="BE5" s="1">
-        <v>115.86654312554137</v>
+        <v>230.41642098829249</v>
       </c>
       <c r="BF5" s="1">
         <v>0</v>
@@ -2550,7 +2548,7 @@
         <v>0</v>
       </c>
       <c r="BH5" s="1">
-        <v>77.928357493129823</v>
+        <v>154.97116546929223</v>
       </c>
       <c r="BI5" s="1">
         <v>0</v>
@@ -2559,7 +2557,7 @@
         <v>0</v>
       </c>
       <c r="BK5" s="1">
-        <v>47.281812697223529</v>
+        <v>94.026332068342242</v>
       </c>
       <c r="BL5" s="1">
         <v>0</v>
@@ -2568,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>24.805711462280311</v>
+        <v>49.329539839761971</v>
       </c>
       <c r="BO5" s="1"/>
       <c r="BP5" s="1"/>
@@ -2580,200 +2578,199 @@
       <c r="BV5" s="1"/>
     </row>
     <row r="6" spans="1:74" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="2"/>
       <c r="C6" t="s">
         <v>83</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="1">
         <v>-10</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="1">
         <v>-10</v>
       </c>
-      <c r="H6" s="3">
+      <c r="H6" s="1">
         <v>-10</v>
       </c>
-      <c r="I6" s="3">
+      <c r="I6" s="1">
         <v>-10</v>
       </c>
-      <c r="J6" s="3">
+      <c r="J6" s="1">
         <v>-10</v>
       </c>
-      <c r="K6" s="3">
+      <c r="K6" s="1">
         <v>-10</v>
       </c>
-      <c r="L6" s="3">
+      <c r="L6" s="1">
         <v>-10</v>
       </c>
-      <c r="M6" s="3">
+      <c r="M6" s="1">
         <v>-10</v>
       </c>
-      <c r="N6" s="3">
+      <c r="N6" s="1">
         <v>-10</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="1">
         <v>-10</v>
       </c>
-      <c r="P6" s="3">
+      <c r="P6" s="1">
         <v>-10</v>
       </c>
-      <c r="Q6" s="3">
+      <c r="Q6" s="1">
         <v>-10</v>
       </c>
-      <c r="R6" s="3">
+      <c r="R6" s="1">
         <v>-10</v>
       </c>
-      <c r="S6" s="3">
+      <c r="S6" s="1">
         <v>-5</v>
       </c>
-      <c r="T6" s="3">
+      <c r="T6" s="1">
         <v>-5</v>
       </c>
-      <c r="U6" s="3">
+      <c r="U6" s="1">
         <v>-5</v>
       </c>
-      <c r="V6" s="3">
+      <c r="V6" s="1">
         <v>-5</v>
       </c>
-      <c r="W6" s="3">
+      <c r="W6" s="1">
         <v>-5</v>
       </c>
-      <c r="X6" s="3">
+      <c r="X6" s="1">
         <v>-5</v>
       </c>
-      <c r="Y6" s="3">
+      <c r="Y6" s="1">
         <v>-5</v>
       </c>
-      <c r="Z6" s="3">
+      <c r="Z6" s="1">
         <v>-5</v>
       </c>
-      <c r="AA6" s="3">
+      <c r="AA6" s="1">
         <v>-5</v>
       </c>
-      <c r="AB6" s="3">
+      <c r="AB6" s="1">
         <v>-5</v>
       </c>
-      <c r="AC6" s="3">
-        <v>-3</v>
-      </c>
-      <c r="AD6" s="3">
-        <v>-3</v>
-      </c>
-      <c r="AE6" s="3">
-        <v>-3</v>
-      </c>
-      <c r="AF6" s="3">
-        <v>-3</v>
-      </c>
-      <c r="AG6" s="3">
-        <v>-3</v>
-      </c>
-      <c r="AH6" s="3">
-        <v>-3</v>
-      </c>
-      <c r="AI6" s="3">
-        <v>-3</v>
-      </c>
-      <c r="AJ6" s="3">
-        <v>-3</v>
-      </c>
-      <c r="AK6" s="3">
-        <v>-3</v>
-      </c>
-      <c r="AL6" s="3">
-        <v>-3</v>
-      </c>
-      <c r="AM6" s="3">
-        <v>-3</v>
-      </c>
-      <c r="AN6" s="3">
-        <v>-3</v>
-      </c>
-      <c r="AO6" s="3">
-        <v>-3</v>
-      </c>
-      <c r="AP6" s="3">
-        <v>-3</v>
-      </c>
-      <c r="AQ6" s="3">
-        <v>-3</v>
-      </c>
-      <c r="AR6" s="3">
-        <v>-3</v>
-      </c>
-      <c r="AS6" s="3">
-        <v>-3</v>
-      </c>
-      <c r="AT6" s="3">
-        <v>-3</v>
-      </c>
-      <c r="AU6" s="3">
-        <v>-3</v>
-      </c>
-      <c r="AV6" s="3">
-        <v>-3</v>
-      </c>
-      <c r="AW6" s="3">
-        <v>-3</v>
-      </c>
-      <c r="AX6" s="3">
-        <v>-3</v>
-      </c>
-      <c r="AY6" s="3">
-        <v>-3</v>
-      </c>
-      <c r="AZ6" s="3">
-        <v>-3</v>
-      </c>
-      <c r="BA6" s="3">
-        <v>-3</v>
-      </c>
-      <c r="BB6" s="3">
-        <v>-3</v>
-      </c>
-      <c r="BC6" s="3">
-        <v>-3</v>
-      </c>
-      <c r="BD6" s="3">
-        <v>-3</v>
-      </c>
-      <c r="BE6" s="3">
-        <v>-3</v>
-      </c>
-      <c r="BF6" s="3">
-        <v>-3</v>
-      </c>
-      <c r="BG6" s="3">
-        <v>-3</v>
-      </c>
-      <c r="BH6" s="3">
-        <v>-3</v>
-      </c>
-      <c r="BI6" s="3">
-        <v>-3</v>
-      </c>
-      <c r="BJ6" s="3">
-        <v>-3</v>
-      </c>
-      <c r="BK6" s="3">
-        <v>-3</v>
-      </c>
-      <c r="BL6" s="3">
-        <v>-3</v>
-      </c>
-      <c r="BM6" s="3">
-        <v>-3</v>
-      </c>
-      <c r="BN6" s="3">
+      <c r="AC6" s="1">
+        <v>-3</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>-3</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>-3</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>-3</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>-3</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>-3</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>-3</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>-3</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>-3</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>-3</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>-3</v>
+      </c>
+      <c r="AN6" s="1">
+        <v>-3</v>
+      </c>
+      <c r="AO6" s="1">
+        <v>-3</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>-3</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>-3</v>
+      </c>
+      <c r="AR6" s="1">
+        <v>-3</v>
+      </c>
+      <c r="AS6" s="1">
+        <v>-3</v>
+      </c>
+      <c r="AT6" s="1">
+        <v>-3</v>
+      </c>
+      <c r="AU6" s="1">
+        <v>-3</v>
+      </c>
+      <c r="AV6" s="1">
+        <v>-3</v>
+      </c>
+      <c r="AW6" s="1">
+        <v>-3</v>
+      </c>
+      <c r="AX6" s="1">
+        <v>-3</v>
+      </c>
+      <c r="AY6" s="1">
+        <v>-3</v>
+      </c>
+      <c r="AZ6" s="1">
+        <v>-3</v>
+      </c>
+      <c r="BA6" s="1">
+        <v>-3</v>
+      </c>
+      <c r="BB6" s="1">
+        <v>-3</v>
+      </c>
+      <c r="BC6" s="1">
+        <v>-3</v>
+      </c>
+      <c r="BD6" s="1">
+        <v>-3</v>
+      </c>
+      <c r="BE6" s="1">
+        <v>-3</v>
+      </c>
+      <c r="BF6" s="1">
+        <v>-3</v>
+      </c>
+      <c r="BG6" s="1">
+        <v>-3</v>
+      </c>
+      <c r="BH6" s="1">
+        <v>-3</v>
+      </c>
+      <c r="BI6" s="1">
+        <v>-3</v>
+      </c>
+      <c r="BJ6" s="1">
+        <v>-3</v>
+      </c>
+      <c r="BK6" s="1">
+        <v>-3</v>
+      </c>
+      <c r="BL6" s="1">
+        <v>-3</v>
+      </c>
+      <c r="BM6" s="1">
+        <v>-3</v>
+      </c>
+      <c r="BN6" s="1">
         <v>-3</v>
       </c>
       <c r="BO6" s="1"/>
